--- a/Заполнения паспорта этикетка КПУ от 15.11.12.xlsx
+++ b/Заполнения паспорта этикетка КПУ от 15.11.12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="935" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="935" firstSheet="6" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="ЭТ-КА 10" sheetId="24" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <t>дата выпуска</t>
   </si>
   <si>
-    <t>Васильева Е.В.</t>
+    <t>Соответсвует ТУ 4863-100-40149153-07, согласованным документам на поставку и признан  годным для эксплуатации.</t>
   </si>
   <si>
-    <t>Соответсвует ТУ 4863-100-40149153-07, согласованным документам на поставку и признан  годным для эксплуатации.</t>
+    <t>Деменева А.Ю.</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
   </sheetPr>
   <dimension ref="A13:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+    <sheetView topLeftCell="B11" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -894,7 +894,7 @@
     </row>
     <row r="19" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E26" s="36" t="str">
         <f>'Исходные данные'!D1</f>
-        <v>Васильева Е.В.</v>
+        <v>Деменева А.Ю.</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="6"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="19" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="E26" s="36" t="str">
         <f>'Исходные данные'!D1</f>
-        <v>Васильева Е.В.</v>
+        <v>Деменева А.Ю.</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="6"/>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="19" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="E26" s="36" t="str">
         <f>'Исходные данные'!D1</f>
-        <v>Васильева Е.В.</v>
+        <v>Деменева А.Ю.</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="6"/>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="19" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="E26" s="36" t="str">
         <f>'Исходные данные'!D1</f>
-        <v>Васильева Е.В.</v>
+        <v>Деменева А.Ю.</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="6"/>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="19" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="E26" s="36" t="str">
         <f>'Исходные данные'!D1</f>
-        <v>Васильева Е.В.</v>
+        <v>Деменева А.Ю.</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="6"/>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="19" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="E26" s="36" t="str">
         <f>'Исходные данные'!D1</f>
-        <v>Васильева Е.В.</v>
+        <v>Деменева А.Ю.</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="6"/>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="19" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="E26" s="36" t="str">
         <f>'Исходные данные'!D1</f>
-        <v>Васильева Е.В.</v>
+        <v>Деменева А.Ю.</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="6"/>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="19" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="E26" s="36" t="str">
         <f>'Исходные данные'!D1</f>
-        <v>Васильева Е.В.</v>
+        <v>Деменева А.Ю.</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="6"/>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="19" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="E26" s="36" t="str">
         <f>'Исходные данные'!D1</f>
-        <v>Васильева Е.В.</v>
+        <v>Деменева А.Ю.</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="6"/>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="19" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="E26" s="36" t="str">
         <f>'Исходные данные'!D1</f>
-        <v>Васильева Е.В.</v>
+        <v>Деменева А.Ю.</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="6"/>
@@ -3543,8 +3543,8 @@
   <sheetPr codeName="Лист23"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,7 +3557,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
